--- a/donnees_prev.xlsx
+++ b/donnees_prev.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud Destarac\Documents\M2 EEET\Econométrie\Projet économétrie Célec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9664D83D-5241-4945-BFA8-3E0807A9F9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BD8346-171C-43CA-BD84-636DF4BD7D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EBCBCEE-85C2-4E96-9E4D-653B25117EB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{8EBCBCEE-85C2-4E96-9E4D-653B25117EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Scénario &quot;pessimiste&quot;" sheetId="1" r:id="rId1"/>
     <sheet name="Scénario &quot;optimiste&quot;" sheetId="2" r:id="rId2"/>
+    <sheet name="graphes S1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>PIB_par_hab</t>
   </si>
@@ -69,7 +70,13 @@
     <t>€ (base 2020)</t>
   </si>
   <si>
-    <t>; 0.9831 ; 0.9614 ; 0.9397 ; 0.9180 ; 0.8962 ; 0.8745 ; 0.8528 ; 0.8311</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Prolongements</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -85,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,6 +127,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125208D-C2FE-4BD2-9ECF-EA316982659C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="B2:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,6 +512,9 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -489,14 +526,17 @@
       <c r="A2" s="1">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>37952.800000000003</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="9">
         <v>186.46</v>
       </c>
-      <c r="D2" s="3">
-        <v>1.0047999999999999</v>
+      <c r="D2" s="10">
+        <v>0.94605736429619403</v>
+      </c>
+      <c r="E2">
+        <v>67.5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -509,14 +549,17 @@
       <c r="A3" s="1">
         <v>2023</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <v>38114.1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>192.19</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.98309999999999997</v>
+      <c r="D3" s="10">
+        <v>0.97281845921098598</v>
+      </c>
+      <c r="E3">
+        <v>67.599999999999994</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -529,14 +572,17 @@
       <c r="A4" s="1">
         <v>2024</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <v>38247.5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <v>198.63</v>
       </c>
-      <c r="D4" s="1">
-        <v>1.0185999999999999</v>
+      <c r="D4" s="10">
+        <v>0.959579554125778</v>
+      </c>
+      <c r="E4">
+        <v>67.7</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -549,84 +595,102 @@
       <c r="A5" s="1">
         <v>2025</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="8">
         <v>38352.68</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>205.83</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.97450000000000003</v>
+      <c r="D5" s="10">
+        <v>0.93634064904056902</v>
+      </c>
+      <c r="E5">
+        <v>67.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2026</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <v>38429.379999999997</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>213.86</v>
       </c>
-      <c r="D6" s="1">
-        <v>1.0012000000000001</v>
+      <c r="D6" s="10">
+        <v>0.89310174395536102</v>
+      </c>
+      <c r="E6">
+        <v>67.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2027</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="8">
         <v>38477.42</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>222.79</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.99639999999999995</v>
+      <c r="D7" s="10">
+        <v>1.0088628388701499</v>
+      </c>
+      <c r="E7">
+        <v>67.900000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2028</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>38496.660000000003</v>
       </c>
-      <c r="C8" s="1">
-        <v>232.7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.87109999999999999</v>
+      <c r="C8" s="9">
+        <v>230.7</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.93662393378494502</v>
+      </c>
+      <c r="E8">
+        <v>67.900000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2029</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>38487.040000000001</v>
       </c>
-      <c r="C9" s="1">
-        <v>243.7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.89410000000000001</v>
+      <c r="C9" s="9">
+        <v>234.7</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.85338502869973598</v>
+      </c>
+      <c r="E9">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2030</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <v>38448.550000000003</v>
       </c>
-      <c r="C10" s="1">
-        <v>255.88</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.93410000000000004</v>
+      <c r="C10" s="9">
+        <v>240.88</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.91014612361452796</v>
+      </c>
+      <c r="E10">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -636,10 +700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8E064D-DE02-4D85-8F1A-97FBC22902B4}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="B2:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,7 +715,7 @@
     <col min="9" max="9" width="39.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -664,6 +728,9 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -671,7 +738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
@@ -684,6 +751,9 @@
       <c r="D2" s="3">
         <v>1.0047999999999999</v>
       </c>
+      <c r="E2">
+        <v>67.5</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -704,17 +774,17 @@
       <c r="D3" s="1">
         <v>0.98309999999999997</v>
       </c>
+      <c r="E3">
+        <v>67.599999999999994</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -727,6 +797,9 @@
       <c r="D4" s="1">
         <v>1.0185999999999999</v>
       </c>
+      <c r="E4">
+        <v>67.7</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
@@ -734,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
@@ -747,8 +820,11 @@
       <c r="D5" s="1">
         <v>0.97450000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2026</v>
       </c>
@@ -761,8 +837,11 @@
       <c r="D6" s="1">
         <v>1.0012000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2027</v>
       </c>
@@ -775,8 +854,11 @@
       <c r="D7" s="1">
         <v>0.99639999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2028</v>
       </c>
@@ -789,8 +871,11 @@
       <c r="D8" s="1">
         <v>0.87109999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2029</v>
       </c>
@@ -803,8 +888,11 @@
       <c r="D9" s="1">
         <v>0.89410000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2030</v>
       </c>
@@ -816,9 +904,769 @@
       </c>
       <c r="D10" s="1">
         <v>0.93410000000000004</v>
+      </c>
+      <c r="E10">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95555B16-2C29-47AE-8FC2-56EEB5564DAE}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1990</v>
+      </c>
+      <c r="B2" s="3">
+        <v>27618.978779513196</v>
+      </c>
+      <c r="C2" s="3">
+        <v>184.86646884272994</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.96021723138651205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1991</v>
+      </c>
+      <c r="B3" s="3">
+        <v>27829.616247812199</v>
+      </c>
+      <c r="C3" s="3">
+        <v>174.42528735632186</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.166714992643747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" ref="A4:A33" si="0">A3+1</f>
+        <v>1992</v>
+      </c>
+      <c r="B4" s="3">
+        <v>28121.10940827637</v>
+      </c>
+      <c r="C4" s="3">
+        <v>173.876404494382</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0760068802807772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1993</v>
+      </c>
+      <c r="B5" s="3">
+        <v>27909.350195855593</v>
+      </c>
+      <c r="C5" s="3">
+        <v>173.86519944979369</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0761416789114535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="B6" s="3">
+        <v>28479.621452916133</v>
+      </c>
+      <c r="C6" s="3">
+        <v>171.85385656292286</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.92209261522398178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="B7" s="3">
+        <v>29042.594330945307</v>
+      </c>
+      <c r="C7" s="3">
+        <v>168.39309428950864</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.98644109672988145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="B8" s="3">
+        <v>29356.104555150279</v>
+      </c>
+      <c r="C8" s="3">
+        <v>166.40625</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.1403056760048165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30004.111154767197</v>
+      </c>
+      <c r="C9" s="3">
+        <v>153.4105534105534</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.98588560199158992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="B10" s="3">
+        <v>30938.877342408927</v>
+      </c>
+      <c r="C10" s="3">
+        <v>148.33759590792837</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0417245103442387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="B11" s="3">
+        <v>31838.132040124608</v>
+      </c>
+      <c r="C11" s="3">
+        <v>144.14758269720102</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.99586147327891605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>32940.440857577967</v>
+      </c>
+      <c r="C12" s="3">
+        <v>138.04755944931162</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.93826339012916826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="B13" s="3">
+        <v>33332.556552502749</v>
+      </c>
+      <c r="C13" s="3">
+        <v>135.34482758620689</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.99811831630152958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="B14" s="3">
+        <v>33453.573796450291</v>
+      </c>
+      <c r="C14" s="3">
+        <v>133.93719806763286</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.89476204395327308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B15" s="3">
+        <v>33547.83064389605</v>
+      </c>
+      <c r="C15" s="3">
+        <v>132.60236686390533</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.0376727140467725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B16" s="3">
+        <v>34265.324974372408</v>
+      </c>
+      <c r="C16" s="3">
+        <v>132.08111239860952</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.0648713900437856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B17" s="3">
+        <v>34657.274415587628</v>
+      </c>
+      <c r="C17" s="3">
+        <v>129.6769055745165</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.0657809123448179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B18" s="3">
+        <v>35357.498194000967</v>
+      </c>
+      <c r="C18" s="3">
+        <v>128.28836896899136</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.0130321753314129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B19" s="3">
+        <v>36037.168176668361</v>
+      </c>
+      <c r="C19" s="3">
+        <v>125.93076990955218</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.93272626976774442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B20" s="3">
+        <v>35979.528698165886</v>
+      </c>
+      <c r="C20" s="3">
+        <v>120.5165668919644</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.0085909044603054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B21" s="3">
+        <v>34787.264719492974</v>
+      </c>
+      <c r="C21" s="3">
+        <v>123.10150069675205</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.0282372718989448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B22" s="3">
+        <v>35312.63574260952</v>
+      </c>
+      <c r="C22" s="3">
+        <v>131.37768556646606</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.1943223779248602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B23" s="3">
+        <v>35998.692124806548</v>
+      </c>
+      <c r="C23" s="3">
+        <v>138.76485058422088</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.85564622951124336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B24" s="3">
+        <v>35886.77373365828</v>
+      </c>
+      <c r="C24" s="3">
+        <v>140.20360344827589</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.0256410481868226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B25" s="3">
+        <v>35982.748962326674</v>
+      </c>
+      <c r="C25" s="3">
+        <v>147.49592097325558</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.1207959883855327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B26" s="3">
+        <v>36170.997651501093</v>
+      </c>
+      <c r="C26" s="3">
+        <v>153.52405462184876</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.83396082360865642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B27" s="3">
+        <v>36431.700416528387</v>
+      </c>
+      <c r="C27" s="3">
+        <v>162.40958599999999</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.91777336409310406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B28" s="3">
+        <v>36648.733711360212</v>
+      </c>
+      <c r="C28" s="3">
+        <v>164.48625374326213</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.0247346406819462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="B29" s="3">
+        <v>37303.936874576058</v>
+      </c>
+      <c r="C29" s="3">
+        <v>164.1851975894092</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.96945064417100868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="B30" s="3">
+        <v>37784.373909455353</v>
+      </c>
+      <c r="C30" s="3">
+        <v>166.29944223494036</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.92279908946751332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="B31" s="3">
+        <v>38424.719613458496</v>
+      </c>
+      <c r="C31" s="3">
+        <v>170.67356711119638</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.93054933265170026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B32" s="3">
+        <v>35454.593059092433</v>
+      </c>
+      <c r="C32" s="3">
+        <v>180.13015659314428</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.83109654763045648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="B33" s="3">
+        <v>37763.984076331093</v>
+      </c>
+      <c r="C33" s="3">
+        <v>181.38111789572568</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.02376031108165</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="5">
+        <v>37952.800000000003</v>
+      </c>
+      <c r="C34" s="4">
+        <v>186.46</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.94605736429619403</v>
+      </c>
+      <c r="F34" s="3">
+        <v>37884.2090107767</v>
+      </c>
+      <c r="G34" s="3">
+        <v>188.534700069439</v>
+      </c>
+      <c r="I34" s="5">
+        <v>37952.800000000003</v>
+      </c>
+      <c r="J34" s="4">
+        <v>186.46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="5">
+        <v>38114.1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>192.19</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.97281845921098598</v>
+      </c>
+      <c r="F35" s="3">
+        <v>38087.984423358001</v>
+      </c>
+      <c r="G35" s="3">
+        <v>193.24837908869301</v>
+      </c>
+      <c r="I35" s="5">
+        <v>38114.1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>192.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="5">
+        <v>38247.5</v>
+      </c>
+      <c r="C36" s="4">
+        <v>198.63</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.959579554125778</v>
+      </c>
+      <c r="F36" s="3">
+        <v>38291.759835939301</v>
+      </c>
+      <c r="G36" s="3">
+        <v>197.962058107948</v>
+      </c>
+      <c r="I36" s="5">
+        <v>38247.5</v>
+      </c>
+      <c r="J36" s="4">
+        <v>198.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="5">
+        <v>38352.68</v>
+      </c>
+      <c r="C37" s="4">
+        <v>205.83</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.93634064904056902</v>
+      </c>
+      <c r="F37" s="3">
+        <v>38495.535248520602</v>
+      </c>
+      <c r="G37" s="3">
+        <v>202.67573712720201</v>
+      </c>
+      <c r="I37" s="5">
+        <v>38352.68</v>
+      </c>
+      <c r="J37" s="4">
+        <v>205.83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B38" s="5">
+        <v>38429.379999999997</v>
+      </c>
+      <c r="C38" s="4">
+        <v>213.86</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.89310174395536102</v>
+      </c>
+      <c r="F38" s="3">
+        <v>38699.310661101998</v>
+      </c>
+      <c r="G38" s="3">
+        <v>207.389416146456</v>
+      </c>
+      <c r="I38" s="5">
+        <v>38429.379999999997</v>
+      </c>
+      <c r="J38" s="4">
+        <v>213.86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>2027</v>
+      </c>
+      <c r="B39" s="5">
+        <v>38477.42</v>
+      </c>
+      <c r="C39" s="4">
+        <v>222.79</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1.0088628388701499</v>
+      </c>
+      <c r="F39" s="3">
+        <v>38903.086073683298</v>
+      </c>
+      <c r="G39" s="3">
+        <v>212.10309516570999</v>
+      </c>
+      <c r="I39" s="5">
+        <v>38477.42</v>
+      </c>
+      <c r="J39" s="4">
+        <v>222.79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B40" s="5">
+        <v>38496.660000000003</v>
+      </c>
+      <c r="C40" s="4">
+        <v>230.7</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.93662393378494502</v>
+      </c>
+      <c r="F40" s="3">
+        <v>39106.861486264599</v>
+      </c>
+      <c r="G40" s="3">
+        <v>216.816774184964</v>
+      </c>
+      <c r="I40" s="5">
+        <v>38496.660000000003</v>
+      </c>
+      <c r="J40" s="4">
+        <v>230.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>2029</v>
+      </c>
+      <c r="B41" s="5">
+        <v>38487.040000000001</v>
+      </c>
+      <c r="C41" s="4">
+        <v>234.7</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.85338502869973598</v>
+      </c>
+      <c r="F41" s="3">
+        <v>39310.6368988459</v>
+      </c>
+      <c r="G41" s="3">
+        <v>221.53045320421899</v>
+      </c>
+      <c r="I41" s="5">
+        <v>38487.040000000001</v>
+      </c>
+      <c r="J41" s="4">
+        <v>234.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>2030</v>
+      </c>
+      <c r="B42" s="5">
+        <v>38448.550000000003</v>
+      </c>
+      <c r="C42" s="4">
+        <v>240.88</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.91014612361452796</v>
+      </c>
+      <c r="F42" s="3">
+        <v>39514.412311427201</v>
+      </c>
+      <c r="G42" s="3">
+        <v>226.244132223473</v>
+      </c>
+      <c r="I42" s="5">
+        <v>38448.550000000003</v>
+      </c>
+      <c r="J42" s="4">
+        <v>240.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D43" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F33:G33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/donnees_prev.xlsx
+++ b/donnees_prev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud Destarac\Documents\M2 EEET\Econométrie\Projet économétrie Célec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BD8346-171C-43CA-BD84-636DF4BD7D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E02849A-81EC-4A79-9882-7FDAF81A4E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{8EBCBCEE-85C2-4E96-9E4D-653B25117EB8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>PIB_par_hab</t>
   </si>
@@ -67,9 +67,6 @@
     <t>unité S.I</t>
   </si>
   <si>
-    <t>€ (base 2020)</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -77,6 +74,18 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>Md€ (base 2020)</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -118,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,15 +148,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125208D-C2FE-4BD2-9ECF-EA316982659C}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="H2" sqref="H2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,14 +497,15 @@
     <col min="4" max="4" width="15.6328125" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" customWidth="1"/>
     <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -513,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -521,18 +522,21 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
-      <c r="B2" s="8">
-        <v>37952.800000000003</v>
-      </c>
-      <c r="C2" s="9">
-        <v>186.46</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="2">
+        <v>2532.3402160000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>185.00874025364018</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.94605736429619403</v>
       </c>
       <c r="E2">
@@ -542,24 +546,34 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <f>B2*1000/E2</f>
+        <v>37516.151348148145</v>
+      </c>
+      <c r="I2" s="1">
+        <v>185.00874025364018</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.94605736429619403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
-      <c r="B3" s="8">
-        <v>38114.1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>192.19</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B3" s="2">
+        <v>2557.6636181600002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>188.70891505871299</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.97281845921098598</v>
       </c>
       <c r="E3">
-        <v>67.599999999999994</v>
+        <v>67.7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -567,130 +581,210 @@
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="0">B3*1000/E3</f>
+        <v>37779.373975775481</v>
+      </c>
+      <c r="I3" s="1">
+        <v>188.70891505871299</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.97281845921098598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
-      <c r="B4" s="8">
-        <v>38247.5</v>
-      </c>
-      <c r="C4" s="9">
-        <v>198.63</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="B4" s="2">
+        <v>2583.2402543416001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>192.48309335988725</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.959579554125778</v>
       </c>
       <c r="E4">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>38100.888707103244</v>
+      </c>
+      <c r="I4" s="1">
+        <v>192.48309335988725</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.959579554125778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
-      <c r="B5" s="8">
-        <v>38352.68</v>
-      </c>
-      <c r="C5" s="9">
-        <v>205.83</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B5" s="2">
+        <v>2601.322936121991</v>
+      </c>
+      <c r="C5" s="1">
+        <v>202.10724802788161</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.93634064904056902</v>
       </c>
       <c r="E5">
-        <v>67.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>38311.088897231086</v>
+      </c>
+      <c r="I5" s="1">
+        <v>202.10724802788161</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.93634064904056902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2026</v>
       </c>
-      <c r="B6" s="8">
-        <v>38429.379999999997</v>
-      </c>
-      <c r="C6" s="9">
-        <v>213.86</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="B6" s="2">
+        <v>2616.9308737387228</v>
+      </c>
+      <c r="C6" s="1">
+        <v>212.21261042927571</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.89310174395536102</v>
       </c>
       <c r="E6">
-        <v>67.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>38484.277554981221</v>
+      </c>
+      <c r="I6" s="1">
+        <v>212.21261042927571</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.89310174395536102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2027</v>
       </c>
-      <c r="B7" s="8">
-        <v>38477.42</v>
-      </c>
-      <c r="C7" s="9">
-        <v>222.79</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="B7" s="2">
+        <v>2632.6324589811552</v>
+      </c>
+      <c r="C7" s="1">
+        <v>222.82324095073952</v>
+      </c>
+      <c r="D7" s="3">
         <v>1.0088628388701499</v>
       </c>
       <c r="E7">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>38658.332731000817</v>
+      </c>
+      <c r="I7" s="1">
+        <v>222.82324095073952</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.0088628388701499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2028</v>
       </c>
-      <c r="B8" s="8">
-        <v>38496.660000000003</v>
-      </c>
-      <c r="C8" s="9">
-        <v>230.7</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="B8" s="2">
+        <v>2645.7956212760605</v>
+      </c>
+      <c r="C8" s="1">
+        <v>233.96440299827651</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.93662393378494502</v>
       </c>
       <c r="E8">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>68.2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>38794.657203461298</v>
+      </c>
+      <c r="I8" s="1">
+        <v>233.96440299827651</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.93662393378494502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2029</v>
       </c>
-      <c r="B9" s="8">
-        <v>38487.040000000001</v>
-      </c>
-      <c r="C9" s="9">
-        <v>234.7</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="B9" s="2">
+        <v>2653.7330081398882</v>
+      </c>
+      <c r="C9" s="1">
+        <v>245.66262314819033</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.85338502869973598</v>
       </c>
       <c r="E9">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>68.2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>38911.041175071674</v>
+      </c>
+      <c r="I9" s="1">
+        <v>245.66262314819033</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.85338502869973598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2030</v>
       </c>
-      <c r="B10" s="8">
-        <v>38448.550000000003</v>
-      </c>
-      <c r="C10" s="9">
-        <v>240.88</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="B10" s="2">
+        <v>2661.6942071643075</v>
+      </c>
+      <c r="C10" s="1">
+        <v>257.94575430559985</v>
+      </c>
+      <c r="D10" s="3">
         <v>0.91014612361452796</v>
       </c>
       <c r="E10">
-        <v>68</v>
+        <v>68.3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>38970.632608555017</v>
+      </c>
+      <c r="I10" s="1">
+        <v>257.94575430559985</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.91014612361452796</v>
       </c>
     </row>
   </sheetData>
@@ -700,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8E064D-DE02-4D85-8F1A-97FBC22902B4}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,15 +806,15 @@
     <col min="3" max="3" width="19.54296875" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" customWidth="1"/>
     <col min="6" max="7" width="20.7265625" customWidth="1"/>
-    <col min="9" max="9" width="39.6328125" customWidth="1"/>
+    <col min="8" max="9" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -729,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -737,13 +831,16 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
       <c r="B2" s="2">
-        <v>37952.800000000003</v>
+        <v>2476</v>
       </c>
       <c r="C2" s="1">
         <v>186.46</v>
@@ -755,13 +852,17 @@
         <v>67.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <f>B2*1000/E2</f>
+        <v>36681.481481481482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -783,8 +884,12 @@
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="0">B3*E3*0.001</f>
+        <v>2576.5131599999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -806,8 +911,12 @@
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2589.3557500000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
@@ -823,8 +932,18 @@
       <c r="E5">
         <v>67.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2596.4764360000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2026</v>
       </c>
@@ -840,8 +959,12 @@
       <c r="E6">
         <v>67.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2605.5119639999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2027</v>
       </c>
@@ -857,8 +980,12 @@
       <c r="E7">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2612.616818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2028</v>
       </c>
@@ -874,8 +1001,12 @@
       <c r="E8">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2613.9232140000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2029</v>
       </c>
@@ -891,8 +1022,12 @@
       <c r="E9">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2617.1187200000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2030</v>
       </c>
@@ -907,6 +1042,10 @@
       </c>
       <c r="E10">
         <v>68</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2614.5014000000006</v>
       </c>
     </row>
   </sheetData>
@@ -918,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95555B16-2C29-47AE-8FC2-56EEB5564DAE}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -927,11 +1066,12 @@
     <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -942,8 +1082,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -956,8 +1099,11 @@
       <c r="D2" s="3">
         <v>0.96021723138651205</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1566.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+1</f>
         <v>1991</v>
@@ -971,8 +1117,11 @@
       <c r="D3" s="3">
         <v>1.166714992643747</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>1585.6089999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A33" si="0">A3+1</f>
         <v>1992</v>
@@ -986,8 +1135,11 @@
       <c r="D4" s="3">
         <v>1.0760068802807772</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>1609.6479999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1001,8 +1153,11 @@
       <c r="D5" s="3">
         <v>1.0761416789114535</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>1603.8689999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1016,8 +1171,11 @@
       <c r="D6" s="3">
         <v>0.92209261522398178</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>1642.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -1031,8 +1189,11 @@
       <c r="D7" s="3">
         <v>0.98644109672988145</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>1679.9469999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -1046,8 +1207,11 @@
       <c r="D8" s="3">
         <v>1.1403056760048165</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>1703.4169999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1997</v>
@@ -1061,8 +1225,11 @@
       <c r="D9" s="3">
         <v>0.98588560199158992</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>1746.4639999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1998</v>
@@ -1076,8 +1243,11 @@
       <c r="D10" s="3">
         <v>1.0417245103442387</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>1806.7619999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1999</v>
@@ -1091,8 +1261,11 @@
       <c r="D11" s="3">
         <v>0.99586147327891605</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>1868.1790000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -1106,8 +1279,11 @@
       <c r="D12" s="3">
         <v>0.93826339012916826</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>1945.5409999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2001</v>
@@ -1121,8 +1297,11 @@
       <c r="D13" s="3">
         <v>0.99811831630152958</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>1982.4949999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -1136,8 +1315,11 @@
       <c r="D14" s="3">
         <v>0.89476204395327308</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>2003.664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -1151,8 +1333,11 @@
       <c r="D15" s="3">
         <v>1.0376727140467725</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2023.056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -1166,8 +1351,11 @@
       <c r="D16" s="3">
         <v>1.0648713900437856</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>2081.0819999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -1181,8 +1369,11 @@
       <c r="D17" s="3">
         <v>1.0657809123448179</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>2120.384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -1196,8 +1387,11 @@
       <c r="D18" s="3">
         <v>1.0130321753314129</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>2177.933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -1211,8 +1405,11 @@
       <c r="D19" s="3">
         <v>0.93272626976774442</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>2233.0450000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -1226,8 +1423,11 @@
       <c r="D20" s="3">
         <v>1.0085909044603054</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>2241.5349999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -1241,8 +1441,11 @@
       <c r="D21" s="3">
         <v>1.0282372718989448</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>2178.221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1256,8 +1459,11 @@
       <c r="D22" s="3">
         <v>1.1943223779248602</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>2221.7930000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -1271,8 +1477,11 @@
       <c r="D23" s="3">
         <v>0.85564622951124336</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>2275.951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -1286,8 +1495,11 @@
       <c r="D24" s="3">
         <v>1.0256410481868226</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>2280.1350000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -1301,8 +1513,11 @@
       <c r="D25" s="3">
         <v>1.1207959883855327</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>2297.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -1316,8 +1531,11 @@
       <c r="D26" s="3">
         <v>0.83396082360865642</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>2320.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -1331,8 +1549,11 @@
       <c r="D27" s="3">
         <v>0.91777336409310406</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>2345.6480000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -1346,8 +1567,11 @@
       <c r="D28" s="3">
         <v>1.0247346406819462</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>2365.8209999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -1361,8 +1585,11 @@
       <c r="D29" s="3">
         <v>0.96945064417100868</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>2415.116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -1376,8 +1603,11 @@
       <c r="D30" s="3">
         <v>0.92279908946751332</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>2454.866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -1391,8 +1621,11 @@
       <c r="D31" s="3">
         <v>0.93054933265170026</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>2504.6370000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -1406,6 +1639,9 @@
       <c r="D32" s="3">
         <v>0.83109654763045648</v>
       </c>
+      <c r="E32">
+        <v>2318.2759999999998</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
@@ -1421,8 +1657,11 @@
       <c r="D33" s="3">
         <v>1.02376031108165</v>
       </c>
+      <c r="E33">
+        <v>2477.828</v>
+      </c>
       <c r="F33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -1434,13 +1673,18 @@
         <v>37952.800000000003</v>
       </c>
       <c r="C34" s="4">
-        <v>186.46</v>
+        <f>1.02*C33</f>
+        <v>185.00874025364018</v>
       </c>
       <c r="D34" s="6">
         <v>0.94605736429619403</v>
       </c>
-      <c r="F34" s="3">
-        <v>37884.2090107767</v>
+      <c r="E34">
+        <f>1.022*E33</f>
+        <v>2532.3402160000001</v>
+      </c>
+      <c r="F34">
+        <v>2489.14167032967</v>
       </c>
       <c r="G34" s="3">
         <v>188.534700069439</v>
@@ -1460,13 +1704,18 @@
         <v>38114.1</v>
       </c>
       <c r="C35" s="4">
-        <v>192.19</v>
+        <f t="shared" ref="C35:C36" si="1">1.02*C34</f>
+        <v>188.70891505871299</v>
       </c>
       <c r="D35" s="6">
         <v>0.97281845921098598</v>
       </c>
-      <c r="F35" s="3">
-        <v>38087.984423358001</v>
+      <c r="E35">
+        <f>1.01*E34</f>
+        <v>2557.6636181600002</v>
+      </c>
+      <c r="F35">
+        <v>2509.61125494505</v>
       </c>
       <c r="G35" s="3">
         <v>193.24837908869301</v>
@@ -1486,13 +1735,18 @@
         <v>38247.5</v>
       </c>
       <c r="C36" s="4">
-        <v>198.63</v>
+        <f t="shared" si="1"/>
+        <v>192.48309335988725</v>
       </c>
       <c r="D36" s="6">
         <v>0.959579554125778</v>
       </c>
-      <c r="F36" s="3">
-        <v>38291.759835939301</v>
+      <c r="E36">
+        <f>1.01*E35</f>
+        <v>2583.2402543416001</v>
+      </c>
+      <c r="F36">
+        <v>2530.0808395604399</v>
       </c>
       <c r="G36" s="3">
         <v>197.962058107948</v>
@@ -1512,13 +1766,18 @@
         <v>38352.68</v>
       </c>
       <c r="C37" s="4">
-        <v>205.83</v>
+        <f>1.05*C36</f>
+        <v>202.10724802788161</v>
       </c>
       <c r="D37" s="6">
         <v>0.93634064904056902</v>
       </c>
-      <c r="F37" s="3">
-        <v>38495.535248520602</v>
+      <c r="E37">
+        <f>1.007*E36</f>
+        <v>2601.322936121991</v>
+      </c>
+      <c r="F37">
+        <v>2550.5504241758199</v>
       </c>
       <c r="G37" s="3">
         <v>202.67573712720201</v>
@@ -1538,13 +1797,18 @@
         <v>38429.379999999997</v>
       </c>
       <c r="C38" s="4">
-        <v>213.86</v>
+        <f t="shared" ref="C38:C42" si="2">1.05*C37</f>
+        <v>212.21261042927571</v>
       </c>
       <c r="D38" s="6">
         <v>0.89310174395536102</v>
       </c>
-      <c r="F38" s="3">
-        <v>38699.310661101998</v>
+      <c r="E38">
+        <f>1.006*E37</f>
+        <v>2616.9308737387228</v>
+      </c>
+      <c r="F38">
+        <v>2571.0200087912099</v>
       </c>
       <c r="G38" s="3">
         <v>207.389416146456</v>
@@ -1564,13 +1828,18 @@
         <v>38477.42</v>
       </c>
       <c r="C39" s="4">
-        <v>222.79</v>
+        <f t="shared" si="2"/>
+        <v>222.82324095073952</v>
       </c>
       <c r="D39" s="6">
         <v>1.0088628388701499</v>
       </c>
-      <c r="F39" s="3">
-        <v>38903.086073683298</v>
+      <c r="E39">
+        <f>1.006*E38</f>
+        <v>2632.6324589811552</v>
+      </c>
+      <c r="F39">
+        <v>2591.4895934065898</v>
       </c>
       <c r="G39" s="3">
         <v>212.10309516570999</v>
@@ -1590,13 +1859,18 @@
         <v>38496.660000000003</v>
       </c>
       <c r="C40" s="4">
-        <v>230.7</v>
+        <f t="shared" si="2"/>
+        <v>233.96440299827651</v>
       </c>
       <c r="D40" s="6">
         <v>0.93662393378494502</v>
       </c>
-      <c r="F40" s="3">
-        <v>39106.861486264599</v>
+      <c r="E40">
+        <f>1.005*E39</f>
+        <v>2645.7956212760605</v>
+      </c>
+      <c r="F40">
+        <v>2611.9591780219798</v>
       </c>
       <c r="G40" s="3">
         <v>216.816774184964</v>
@@ -1616,13 +1890,18 @@
         <v>38487.040000000001</v>
       </c>
       <c r="C41" s="4">
-        <v>234.7</v>
+        <f t="shared" si="2"/>
+        <v>245.66262314819033</v>
       </c>
       <c r="D41" s="6">
         <v>0.85338502869973598</v>
       </c>
-      <c r="F41" s="3">
-        <v>39310.6368988459</v>
+      <c r="E41">
+        <f>1.003*E40</f>
+        <v>2653.7330081398882</v>
+      </c>
+      <c r="F41">
+        <v>2632.4287626373598</v>
       </c>
       <c r="G41" s="3">
         <v>221.53045320421899</v>
@@ -1642,13 +1921,18 @@
         <v>38448.550000000003</v>
       </c>
       <c r="C42" s="4">
-        <v>240.88</v>
+        <f t="shared" si="2"/>
+        <v>257.94575430559985</v>
       </c>
       <c r="D42" s="6">
         <v>0.91014612361452796</v>
       </c>
-      <c r="F42" s="3">
-        <v>39514.412311427201</v>
+      <c r="E42">
+        <f>1.003*E41</f>
+        <v>2661.6942071643075</v>
+      </c>
+      <c r="F42">
+        <v>2652.8983472527502</v>
       </c>
       <c r="G42" s="3">
         <v>226.244132223473</v>

--- a/donnees_prev.xlsx
+++ b/donnees_prev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud Destarac\Documents\M2 EEET\Econométrie\Projet économétrie Célec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E02849A-81EC-4A79-9882-7FDAF81A4E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2147A8-0339-4ADA-B195-9D02E9CFD330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{8EBCBCEE-85C2-4E96-9E4D-653B25117EB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{8EBCBCEE-85C2-4E96-9E4D-653B25117EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Scénario &quot;pessimiste&quot;" sheetId="1" r:id="rId1"/>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8E064D-DE02-4D85-8F1A-97FBC22902B4}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95555B16-2C29-47AE-8FC2-56EEB5564DAE}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/donnees_prev.xlsx
+++ b/donnees_prev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud Destarac\Documents\M2 EEET\Econométrie\Projet économétrie Célec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2147A8-0339-4ADA-B195-9D02E9CFD330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E93A3C8-92A7-4B13-B039-69BC5C44161B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{8EBCBCEE-85C2-4E96-9E4D-653B25117EB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EBCBCEE-85C2-4E96-9E4D-653B25117EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Scénario &quot;pessimiste&quot;" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>PIB_par_hab</t>
   </si>
@@ -64,13 +64,7 @@
     <t>€/MWh</t>
   </si>
   <si>
-    <t>unité S.I</t>
-  </si>
-  <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Prolongements</t>
   </si>
   <si>
     <t>Population</t>
@@ -86,6 +80,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -127,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -145,9 +142,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D125208D-C2FE-4BD2-9ECF-EA316982659C}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,14 +492,17 @@
     <col min="6" max="6" width="19.1796875" customWidth="1"/>
     <col min="7" max="7" width="18.1796875" customWidth="1"/>
     <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="0.7265625" customWidth="1"/>
+    <col min="10" max="10" width="20.08984375" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -514,19 +511,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
@@ -542,24 +539,18 @@
       <c r="E2">
         <v>67.5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <f>B2*1000/E2</f>
         <v>37516.151348148145</v>
       </c>
-      <c r="I2" s="1">
-        <v>185.00874025364018</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.94605736429619403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -575,24 +566,18 @@
       <c r="E3">
         <v>67.7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3">
+        <f>B3*1000/E3</f>
+        <v>37779.373975775481</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H10" si="0">B3*1000/E3</f>
-        <v>37779.373975775481</v>
-      </c>
-      <c r="I3" s="1">
-        <v>188.70891505871299</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.97281845921098598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -608,24 +593,18 @@
       <c r="E4">
         <v>67.8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4">
+        <f>B4*1000/E4</f>
+        <v>38100.888707103244</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>38100.888707103244</v>
-      </c>
-      <c r="I4" s="1">
-        <v>192.48309335988725</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.959579554125778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
@@ -641,18 +620,12 @@
       <c r="E5">
         <v>67.900000000000006</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="G5">
+        <f>B5*1000/E5</f>
         <v>38311.088897231086</v>
       </c>
-      <c r="I5" s="1">
-        <v>202.10724802788161</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.93634064904056902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2026</v>
       </c>
@@ -668,18 +641,12 @@
       <c r="E6">
         <v>68</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="G6">
+        <f>B6*1000/E6</f>
         <v>38484.277554981221</v>
       </c>
-      <c r="I6" s="1">
-        <v>212.21261042927571</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.89310174395536102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2027</v>
       </c>
@@ -695,18 +662,12 @@
       <c r="E7">
         <v>68.099999999999994</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
+      <c r="G7">
+        <f>B7*1000/E7</f>
         <v>38658.332731000817</v>
       </c>
-      <c r="I7" s="1">
-        <v>222.82324095073952</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.0088628388701499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2028</v>
       </c>
@@ -722,18 +683,12 @@
       <c r="E8">
         <v>68.2</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
+      <c r="G8">
+        <f>B8*1000/E8</f>
         <v>38794.657203461298</v>
       </c>
-      <c r="I8" s="1">
-        <v>233.96440299827651</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.93662393378494502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2029</v>
       </c>
@@ -749,18 +704,12 @@
       <c r="E9">
         <v>68.2</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
+      <c r="G9">
+        <f>B9*1000/E9</f>
         <v>38911.041175071674</v>
       </c>
-      <c r="I9" s="1">
-        <v>245.66262314819033</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.85338502869973598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2030</v>
       </c>
@@ -776,15 +725,9 @@
       <c r="E10">
         <v>68.3</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
+      <c r="G10">
+        <f>B10*1000/E10</f>
         <v>38970.632608555017</v>
-      </c>
-      <c r="I10" s="1">
-        <v>257.94575430559985</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.91014612361452796</v>
       </c>
     </row>
   </sheetData>
@@ -794,10 +737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8E064D-DE02-4D85-8F1A-97FBC22902B4}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,15 +749,17 @@
     <col min="3" max="3" width="19.54296875" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" customWidth="1"/>
     <col min="6" max="7" width="20.7265625" customWidth="1"/>
-    <col min="8" max="9" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" customWidth="1"/>
+    <col min="9" max="9" width="23.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -823,229 +768,229 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
       <c r="B2" s="2">
-        <v>2476</v>
+        <v>2532.3402160000001</v>
       </c>
       <c r="C2" s="1">
-        <v>186.46</v>
+        <v>185.00874025364018</v>
       </c>
       <c r="D2" s="3">
-        <v>1.0047999999999999</v>
+        <v>0.94605736429619403</v>
       </c>
       <c r="E2">
         <v>67.5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <f>B2*1000/E2</f>
-        <v>36681.481481481482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>37516.151348148145</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
       <c r="B3" s="2">
-        <v>38114.1</v>
+        <v>2557.6636181600002</v>
       </c>
       <c r="C3" s="1">
-        <v>192.19</v>
+        <v>188.70891505871299</v>
       </c>
       <c r="D3" s="1">
-        <v>0.98309999999999997</v>
+        <v>0.97281845921098598</v>
       </c>
       <c r="E3">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>67.7</v>
+      </c>
+      <c r="G3">
+        <f>B3*1000/E3</f>
+        <v>37779.373975775481</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H10" si="0">B3*E3*0.001</f>
-        <v>2576.5131599999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
       <c r="B4" s="2">
-        <v>38247.5</v>
+        <v>2583.2402543416001</v>
       </c>
       <c r="C4" s="1">
-        <v>198.63</v>
+        <v>192.48309335988725</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0185999999999999</v>
+        <v>0.959579554125778</v>
       </c>
       <c r="E4">
-        <v>67.7</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>67.8</v>
+      </c>
+      <c r="G4">
+        <f>B4*1000/E4</f>
+        <v>38100.888707103244</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>2589.3557500000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2025</v>
       </c>
       <c r="B5" s="2">
-        <v>38352.68</v>
+        <v>2627.1553386654073</v>
       </c>
       <c r="C5" s="1">
-        <v>205.83</v>
+        <v>190.55826242628837</v>
       </c>
       <c r="D5" s="1">
-        <v>0.97450000000000003</v>
+        <v>0.93634064904056902</v>
       </c>
       <c r="E5">
-        <v>67.7</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <f>B5*1000/E5</f>
+        <v>38634.637333314808</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>2596.4764360000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2026</v>
       </c>
       <c r="B6" s="2">
-        <v>38429.379999999997</v>
+        <v>2677.0712901000497</v>
       </c>
       <c r="C6" s="1">
-        <v>213.86</v>
+        <v>188.65267980202549</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0012000000000001</v>
+        <v>0.89310174395536102</v>
       </c>
       <c r="E6">
-        <v>67.8</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>2605.5119639999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="G6">
+        <f>B6*1000/E6</f>
+        <v>39310.885317181346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2027</v>
       </c>
       <c r="B7" s="2">
-        <v>38477.42</v>
+        <v>2727.9356446119505</v>
       </c>
       <c r="C7" s="1">
-        <v>222.79</v>
+        <v>186.76615300400522</v>
       </c>
       <c r="D7" s="1">
-        <v>0.99639999999999995</v>
+        <v>1.0088628388701499</v>
       </c>
       <c r="E7">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>2612.616818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68.2</v>
+      </c>
+      <c r="G7">
+        <f>B7*1000/E7</f>
+        <v>39999.056372609244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2028</v>
       </c>
       <c r="B8" s="2">
-        <v>38496.660000000003</v>
+        <v>2785.2222931488013</v>
       </c>
       <c r="C8" s="1">
-        <v>232.7</v>
+        <v>183.03082994392511</v>
       </c>
       <c r="D8" s="1">
-        <v>0.87109999999999999</v>
+        <v>0.93662393378494502</v>
       </c>
       <c r="E8">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>2613.9232140000008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68.3</v>
+      </c>
+      <c r="G8">
+        <f>B8*1000/E8</f>
+        <v>40779.242945077618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2029</v>
       </c>
       <c r="B9" s="2">
-        <v>38487.040000000001</v>
+        <v>2846.497183598075</v>
       </c>
       <c r="C9" s="1">
-        <v>243.7</v>
+        <v>179.37021334504661</v>
       </c>
       <c r="D9" s="1">
-        <v>0.89410000000000001</v>
+        <v>0.85338502869973598</v>
       </c>
       <c r="E9">
-        <v>68</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>2617.1187200000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G9">
+        <f>B9*1000/E9</f>
+        <v>41615.455900556648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2030</v>
       </c>
       <c r="B10" s="2">
-        <v>38448.550000000003</v>
+        <v>2909.1201216372328</v>
       </c>
       <c r="C10" s="1">
-        <v>255.88</v>
+        <v>175.78280907814568</v>
       </c>
       <c r="D10" s="1">
-        <v>0.93410000000000004</v>
+        <v>0.91014612361452796</v>
       </c>
       <c r="E10">
-        <v>68</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>2614.5014000000006</v>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G10">
+        <f>B10*1000/E10</f>
+        <v>42406.998857685619</v>
       </c>
     </row>
   </sheetData>
@@ -1055,9 +1000,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95555B16-2C29-47AE-8FC2-56EEB5564DAE}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1071,7 +1016,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1083,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1643,7 +1588,7 @@
         <v>2318.2759999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -1660,18 +1605,12 @@
       <c r="E33">
         <v>2477.828</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>2022</v>
       </c>
-      <c r="B34" s="5">
-        <v>37952.800000000003</v>
-      </c>
+      <c r="B34" s="5"/>
       <c r="C34" s="4">
         <f>1.02*C33</f>
         <v>185.00874025364018</v>
@@ -1683,26 +1622,12 @@
         <f>1.022*E33</f>
         <v>2532.3402160000001</v>
       </c>
-      <c r="F34">
-        <v>2489.14167032967</v>
-      </c>
-      <c r="G34" s="3">
-        <v>188.534700069439</v>
-      </c>
-      <c r="I34" s="5">
-        <v>37952.800000000003</v>
-      </c>
-      <c r="J34" s="4">
-        <v>186.46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>2023</v>
       </c>
-      <c r="B35" s="5">
-        <v>38114.1</v>
-      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="4">
         <f t="shared" ref="C35:C36" si="1">1.02*C34</f>
         <v>188.70891505871299</v>
@@ -1714,26 +1639,12 @@
         <f>1.01*E34</f>
         <v>2557.6636181600002</v>
       </c>
-      <c r="F35">
-        <v>2509.61125494505</v>
-      </c>
-      <c r="G35" s="3">
-        <v>193.24837908869301</v>
-      </c>
-      <c r="I35" s="5">
-        <v>38114.1</v>
-      </c>
-      <c r="J35" s="4">
-        <v>192.19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>2024</v>
       </c>
-      <c r="B36" s="5">
-        <v>38247.5</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="4">
         <f t="shared" si="1"/>
         <v>192.48309335988725</v>
@@ -1745,212 +1656,113 @@
         <f>1.01*E35</f>
         <v>2583.2402543416001</v>
       </c>
-      <c r="F36">
-        <v>2530.0808395604399</v>
-      </c>
-      <c r="G36" s="3">
-        <v>197.962058107948</v>
-      </c>
-      <c r="I36" s="5">
-        <v>38247.5</v>
-      </c>
-      <c r="J36" s="4">
-        <v>198.63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>2025</v>
       </c>
-      <c r="B37" s="5">
-        <v>38352.68</v>
-      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="4">
-        <f>1.05*C36</f>
-        <v>202.10724802788161</v>
+        <f>0.99*C36</f>
+        <v>190.55826242628837</v>
       </c>
       <c r="D37" s="6">
         <v>0.93634064904056902</v>
       </c>
       <c r="E37">
-        <f>1.007*E36</f>
-        <v>2601.322936121991</v>
-      </c>
-      <c r="F37">
-        <v>2550.5504241758199</v>
-      </c>
-      <c r="G37" s="3">
-        <v>202.67573712720201</v>
-      </c>
-      <c r="I37" s="5">
-        <v>38352.68</v>
-      </c>
-      <c r="J37" s="4">
-        <v>205.83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <f>1.017*E36</f>
+        <v>2627.1553386654073</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>2026</v>
       </c>
-      <c r="B38" s="5">
-        <v>38429.379999999997</v>
-      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="4">
-        <f t="shared" ref="C38:C42" si="2">1.05*C37</f>
-        <v>212.21261042927571</v>
+        <f>0.99*C37</f>
+        <v>188.65267980202549</v>
       </c>
       <c r="D38" s="6">
         <v>0.89310174395536102</v>
       </c>
       <c r="E38">
-        <f>1.006*E37</f>
-        <v>2616.9308737387228</v>
-      </c>
-      <c r="F38">
-        <v>2571.0200087912099</v>
-      </c>
-      <c r="G38" s="3">
-        <v>207.389416146456</v>
-      </c>
-      <c r="I38" s="5">
-        <v>38429.379999999997</v>
-      </c>
-      <c r="J38" s="4">
-        <v>213.86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <f>1.019*E37</f>
+        <v>2677.0712901000497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>2027</v>
       </c>
-      <c r="B39" s="5">
-        <v>38477.42</v>
-      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="4">
-        <f t="shared" si="2"/>
-        <v>222.82324095073952</v>
+        <f>0.99*C38</f>
+        <v>186.76615300400522</v>
       </c>
       <c r="D39" s="6">
         <v>1.0088628388701499</v>
       </c>
       <c r="E39">
-        <f>1.006*E38</f>
-        <v>2632.6324589811552</v>
-      </c>
-      <c r="F39">
-        <v>2591.4895934065898</v>
-      </c>
-      <c r="G39" s="3">
-        <v>212.10309516570999</v>
-      </c>
-      <c r="I39" s="5">
-        <v>38477.42</v>
-      </c>
-      <c r="J39" s="4">
-        <v>222.79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <f>1.019*E38</f>
+        <v>2727.9356446119505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>2028</v>
       </c>
-      <c r="B40" s="5">
-        <v>38496.660000000003</v>
-      </c>
+      <c r="B40" s="5"/>
       <c r="C40" s="4">
-        <f t="shared" si="2"/>
-        <v>233.96440299827651</v>
+        <f>0.98*C39</f>
+        <v>183.03082994392511</v>
       </c>
       <c r="D40" s="6">
         <v>0.93662393378494502</v>
       </c>
       <c r="E40">
-        <f>1.005*E39</f>
-        <v>2645.7956212760605</v>
-      </c>
-      <c r="F40">
-        <v>2611.9591780219798</v>
-      </c>
-      <c r="G40" s="3">
-        <v>216.816774184964</v>
-      </c>
-      <c r="I40" s="5">
-        <v>38496.660000000003</v>
-      </c>
-      <c r="J40" s="4">
-        <v>230.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+        <f>1.021*E39</f>
+        <v>2785.2222931488013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>2029</v>
       </c>
-      <c r="B41" s="5">
-        <v>38487.040000000001</v>
-      </c>
+      <c r="B41" s="5"/>
       <c r="C41" s="4">
-        <f t="shared" si="2"/>
-        <v>245.66262314819033</v>
+        <f>0.98*C40</f>
+        <v>179.37021334504661</v>
       </c>
       <c r="D41" s="6">
         <v>0.85338502869973598</v>
       </c>
       <c r="E41">
-        <f>1.003*E40</f>
-        <v>2653.7330081398882</v>
-      </c>
-      <c r="F41">
-        <v>2632.4287626373598</v>
-      </c>
-      <c r="G41" s="3">
-        <v>221.53045320421899</v>
-      </c>
-      <c r="I41" s="5">
-        <v>38487.040000000001</v>
-      </c>
-      <c r="J41" s="4">
-        <v>234.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <f>1.022*E40</f>
+        <v>2846.497183598075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>2030</v>
       </c>
-      <c r="B42" s="5">
-        <v>38448.550000000003</v>
-      </c>
+      <c r="B42" s="5"/>
       <c r="C42" s="4">
-        <f t="shared" si="2"/>
-        <v>257.94575430559985</v>
+        <f>0.98*C41</f>
+        <v>175.78280907814568</v>
       </c>
       <c r="D42" s="6">
         <v>0.91014612361452796</v>
       </c>
       <c r="E42">
-        <f>1.003*E41</f>
-        <v>2661.6942071643075</v>
-      </c>
-      <c r="F42">
-        <v>2652.8983472527502</v>
-      </c>
-      <c r="G42" s="3">
-        <v>226.244132223473</v>
-      </c>
-      <c r="I42" s="5">
-        <v>38448.550000000003</v>
-      </c>
-      <c r="J42" s="4">
-        <v>240.88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+        <f>1.022*E41</f>
+        <v>2909.1201216372328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F33:G33"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>